--- a/LinkExcelSheet/LinkedIn Microsoft Excel Worksheet.xlsx
+++ b/LinkExcelSheet/LinkedIn Microsoft Excel Worksheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="79">
   <si>
     <t>No. of messeges</t>
   </si>
@@ -98,6 +98,105 @@
   </si>
   <si>
     <t xml:space="preserve">                                                                                                                                                 Locations</t>
+  </si>
+  <si>
+    <t>Saurabh Gujjelwar</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+TODAY
+Itech Cloud sent the following message at 5:05 PM
+View Itech’s profile
+Itech Cloud  5:05 PM
+I'm good
+Saurabh Gujjelwar sent the following messages at 5:05 PM
+View Saurabh’s profile
+Saurabh Gujjelwar  5:05 PM
+What do you do?
+Done
+Itech Cloud sent the following messages at 5:05 PM
+View Itech’s profile
+Itech Cloud  5:05 PM
+I got it
+I replied
+Already
+Saurabh Gujjelwar sent the following message at 5:05 PM
+View Saurabh’s profile
+Saurabh Gujjelwar  5:05 PM
+Okay
+Itech Cloud sent the following messages at 5:05 PM
+View Itech’s profile
+Itech Cloud  5:05 PM
+Check
+Right now
+work
+Saurabh Gujjelwar sent the following message at 5:05 PM
+View Saurabh’s profile
+Saurabh Gujjelwar  5:05 PM
+Oh
+Itech Cloud sent the following messages at 5:05 PM
+View Itech’s profile
+Itech Cloud  5:05 PM
+Yes
+Tell me about it
+Why?
+Saurabh Gujjelwar sent the following message at 5:05 PM
+View Saurabh’s profile
+Saurabh Gujjelwar  5:05 PM
+Bye
+Itech Cloud sent the following messages at 5:05 PM
+View Itech’s profile
+Itech Cloud  5:05 PM
+I don't know
+I'm sorry
+done
+Saurabh Gujjelwar sent the following message at 5:06 PM
+View Saurabh’s profile
+Saurabh Gujjelwar  5:06 PM
+Done
+Itech Cloud sent the following messages at 5:06 PM
+View Itech’s profile
+Itech Cloud  5:06 PM
+stop
+</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/saurabh-gujjelwar-748357128/</t>
+  </si>
+  <si>
+    <t>Salesforce Developer 🌩️</t>
+  </si>
+  <si>
+    <t>DevOps role in SFDC</t>
+  </si>
+  <si>
+    <t>https://www.itechcloudsolution.com</t>
+  </si>
+  <si>
+    <t>9979933595
+Phone number is 9979933595</t>
+  </si>
+  <si>
+    <t>IT Services and IT Consulting</t>
+  </si>
+  <si>
+    <t>11-50 employees</t>
+  </si>
+  <si>
+    <t>30 on LinkedIn
+Includes members with current employer listed as iTechCloud Solution Pvt Ltd, including part-time roles.</t>
+  </si>
+  <si>
+    <t>Surat, Gujarat</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>339, Silver business hub, Varachha Road, Varachha, Surat, Gujarat 395006, IN</t>
   </si>
   <si>
     <t>Nisarg Shihora</t>
@@ -149,32 +248,6 @@
     <t>LWC Webinar</t>
   </si>
   <si>
-    <t>https://www.itechcloudsolution.com</t>
-  </si>
-  <si>
-    <t>9979933595
-Phone number is 9979933595</t>
-  </si>
-  <si>
-    <t>IT Services and IT Consulting</t>
-  </si>
-  <si>
-    <t>11-50 employees</t>
-  </si>
-  <si>
-    <t>30 on LinkedIn
-Includes members with current employer listed as iTechCloud Solution Pvt Ltd, including part-time roles.</t>
-  </si>
-  <si>
-    <t>Surat, Gujarat</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>339, Silver business hub, Varachha Road, Varachha, Surat, Gujarat 395006, IN</t>
-  </si>
-  <si>
     <t>Dipak Koli ☁️</t>
   </si>
   <si>
@@ -246,77 +319,6 @@
   </si>
   <si>
     <t>Salesforce Developer</t>
-  </si>
-  <si>
-    <t>Saurabh Gujjelwar</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-FRIDAY
-Itech Cloud sent the following message at 12:06 PM
-View Itech’s profile
-Itech Cloud  12:06 PM
-hi
-Saurabh Gujjelwar sent the following message at 12:06 PM
-View Saurabh’s profile
-Saurabh Gujjelwar  12:06 PM
-Hi
-Itech Cloud sent the following messages at 12:06 PM
-View Itech’s profile
-Itech Cloud  12:06 PM
-How are you?
-Where are you?
-What are you doing?
-Where are you?
-What are you doing?
-Where are you?
-What are you doing?
-Saurabh Gujjelwar sent the following message at 12:07 PM
-View Saurabh’s profile
-Saurabh Gujjelwar  12:07 PM
-Bs
-Itech Cloud sent the following message at 12:07 PM
-View Itech’s profile
-Itech Cloud  12:07 PM
-Okay
-Saurabh Gujjelwar sent the following message at 12:07 PM
-View Saurabh’s profile
-Saurabh Gujjelwar  12:07 PM
-Yeah
-Itech Cloud sent the following message at 12:07 PM
-View Itech’s profile
-Itech Cloud  12:07 PM
-Saurabh Gujjelwar sent the following message at 12:07 PM
-View Saurabh’s profile
-Saurabh Gujjelwar  12:07 PM
-zal ka 
-karu logout?
-Itech Cloud sent the following message at 12:07 PM
-View Itech’s profile
-Itech Cloud  12:07 PM
-Yes
-Saurabh Gujjelwar sent the following messages at 12:07 PM
-View Saurabh’s profile
-Saurabh Gujjelwar  12:07 PM
-Great
-Good luck!
-Itech Cloud sent the following messages at 12:07 PM
-View Itech’s profile
-Itech Cloud  12:07 PM
-Thank you
-</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/saurabh-gujjelwar-748357128/</t>
-  </si>
-  <si>
-    <t>Salesforce Developer 🌩️</t>
-  </si>
-  <si>
-    <t>DevOps role in SFDC</t>
   </si>
   <si>
     <t>Tirth Deshmukh</t>
@@ -431,9 +433,6 @@
     <t>Deven Rudani</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 Status is reachable
 Deven Rudani
@@ -444,8 +443,18 @@
 Deven Rudani sent the following messages at 11:38 AM
 View Deven’s profile
 Deven Rudani  11:38 AM
+👏
+👍
+👎
+😊
+😞
 Hello Fellas,
 I hope u doing well but why u disturb our juniors
+👏
+👍
+👎
+😊
+😞
 </t>
   </si>
   <si>
@@ -563,9 +572,6 @@
   </si>
   <si>
     <t>Anand Dasani</t>
-  </si>
-  <si>
-    <t>24</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -935,7 +941,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD21"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,21 +1050,21 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
@@ -1087,10 +1093,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
         <v>34</v>
@@ -1126,7 +1132,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1187,7 +1193,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -1233,16 +1239,16 @@
         <v>54</v>
       </c>
       <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
         <v>55</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>56</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>57</v>
-      </c>
-      <c r="E8" t="s">
-        <v>58</v>
       </c>
       <c r="F8" t="s">
         <v>19</v>
@@ -1271,60 +1277,60 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
         <v>59</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>60</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>61</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>62</v>
       </c>
-      <c r="E9" t="s">
-        <v>63</v>
-      </c>
       <c r="F9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" t="s">
         <v>65</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>66</v>
-      </c>
-      <c r="H9" t="s">
-        <v>67</v>
       </c>
       <c r="I9" t="s">
         <v>22</v>
       </c>
       <c r="J9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" t="s">
         <v>68</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>69</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>70</v>
-      </c>
-      <c r="M9" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
         <v>72</v>
       </c>
-      <c r="B10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>73</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>74</v>
-      </c>
-      <c r="E10" t="s">
-        <v>75</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
@@ -1351,21 +1357,21 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
         <v>76</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>77</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>78</v>
-      </c>
-      <c r="D11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" t="s">
-        <v>80</v>
       </c>
       <c r="F11" t="s">
         <v>19</v>
